--- a/data/nzd0538/nzd0538.xlsx
+++ b/data/nzd0538/nzd0538.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V494"/>
+  <dimension ref="A1:V500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31634,6 +31634,438 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>338.62</v>
+      </c>
+      <c r="C495" t="n">
+        <v>331.23</v>
+      </c>
+      <c r="D495" t="n">
+        <v>342.7333333333333</v>
+      </c>
+      <c r="E495" t="n">
+        <v>354.5733333333333</v>
+      </c>
+      <c r="F495" t="n">
+        <v>364.11</v>
+      </c>
+      <c r="G495" t="n">
+        <v>372.4115384615384</v>
+      </c>
+      <c r="H495" t="n">
+        <v>367.6725</v>
+      </c>
+      <c r="I495" t="n">
+        <v>381.52</v>
+      </c>
+      <c r="J495" t="n">
+        <v>375.1766666666667</v>
+      </c>
+      <c r="K495" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="L495" t="n">
+        <v>357.9066666666667</v>
+      </c>
+      <c r="M495" t="n">
+        <v>365</v>
+      </c>
+      <c r="N495" t="n">
+        <v>368.23</v>
+      </c>
+      <c r="O495" t="n">
+        <v>367.04</v>
+      </c>
+      <c r="P495" t="n">
+        <v>351.8633333333333</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="R495" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="S495" t="n">
+        <v>355.0966666666667</v>
+      </c>
+      <c r="T495" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="U495" t="n">
+        <v>311.56</v>
+      </c>
+      <c r="V495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="C496" t="n">
+        <v>324.24</v>
+      </c>
+      <c r="D496" t="n">
+        <v>333.7566666666667</v>
+      </c>
+      <c r="E496" t="n">
+        <v>332.0566666666667</v>
+      </c>
+      <c r="F496" t="n">
+        <v>352.4442857142857</v>
+      </c>
+      <c r="G496" t="n">
+        <v>355.76</v>
+      </c>
+      <c r="H496" t="n">
+        <v>359.7275</v>
+      </c>
+      <c r="I496" t="n">
+        <v>365.84</v>
+      </c>
+      <c r="J496" t="n">
+        <v>373.7833333333333</v>
+      </c>
+      <c r="K496" t="n">
+        <v>362.23</v>
+      </c>
+      <c r="L496" t="n">
+        <v>355.6833333333333</v>
+      </c>
+      <c r="M496" t="n">
+        <v>362.53</v>
+      </c>
+      <c r="N496" t="n">
+        <v>363.22</v>
+      </c>
+      <c r="O496" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="P496" t="n">
+        <v>334.8166666666667</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>339.33</v>
+      </c>
+      <c r="R496" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="S496" t="n">
+        <v>337.8933333333333</v>
+      </c>
+      <c r="T496" t="n">
+        <v>338.28</v>
+      </c>
+      <c r="U496" t="n">
+        <v>340.66</v>
+      </c>
+      <c r="V496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>327.82</v>
+      </c>
+      <c r="C497" t="n">
+        <v>326.85</v>
+      </c>
+      <c r="D497" t="n">
+        <v>334.43</v>
+      </c>
+      <c r="E497" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="F497" t="n">
+        <v>355.7871428571428</v>
+      </c>
+      <c r="G497" t="n">
+        <v>357.1523076923077</v>
+      </c>
+      <c r="H497" t="n">
+        <v>361.85</v>
+      </c>
+      <c r="I497" t="n">
+        <v>368.41</v>
+      </c>
+      <c r="J497" t="n">
+        <v>366.43</v>
+      </c>
+      <c r="K497" t="n">
+        <v>360.96</v>
+      </c>
+      <c r="L497" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="M497" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="N497" t="n">
+        <v>366.72</v>
+      </c>
+      <c r="O497" t="n">
+        <v>365.68</v>
+      </c>
+      <c r="P497" t="n">
+        <v>333.08</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>336.3</v>
+      </c>
+      <c r="R497" t="n">
+        <v>336.7</v>
+      </c>
+      <c r="S497" t="n">
+        <v>340.13</v>
+      </c>
+      <c r="T497" t="n">
+        <v>342.42</v>
+      </c>
+      <c r="U497" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="V497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C498" t="n">
+        <v>317.83</v>
+      </c>
+      <c r="D498" t="n">
+        <v>322.1266666666667</v>
+      </c>
+      <c r="E498" t="n">
+        <v>347.2566666666667</v>
+      </c>
+      <c r="F498" t="n">
+        <v>352.0571428571428</v>
+      </c>
+      <c r="G498" t="n">
+        <v>348.8661538461538</v>
+      </c>
+      <c r="H498" t="n">
+        <v>338.0525</v>
+      </c>
+      <c r="I498" t="n">
+        <v>364.89</v>
+      </c>
+      <c r="J498" t="n">
+        <v>369.0433333333333</v>
+      </c>
+      <c r="K498" t="n">
+        <v>346.86</v>
+      </c>
+      <c r="L498" t="n">
+        <v>330.7133333333333</v>
+      </c>
+      <c r="M498" t="n">
+        <v>332.81</v>
+      </c>
+      <c r="N498" t="n">
+        <v>347.02</v>
+      </c>
+      <c r="O498" t="n">
+        <v>370.65</v>
+      </c>
+      <c r="P498" t="n">
+        <v>343.0366666666667</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>332.81</v>
+      </c>
+      <c r="R498" t="n">
+        <v>336.49</v>
+      </c>
+      <c r="S498" t="n">
+        <v>342.0333333333333</v>
+      </c>
+      <c r="T498" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="U498" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="V498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:14:40+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>376.13</v>
+      </c>
+      <c r="C499" t="n">
+        <v>334.62</v>
+      </c>
+      <c r="D499" t="n">
+        <v>329.4433333333333</v>
+      </c>
+      <c r="E499" t="n">
+        <v>347.5633333333333</v>
+      </c>
+      <c r="F499" t="n">
+        <v>359.7114285714285</v>
+      </c>
+      <c r="G499" t="n">
+        <v>375.8646153846154</v>
+      </c>
+      <c r="H499" t="n">
+        <v>367.965</v>
+      </c>
+      <c r="I499" t="n">
+        <v>386.23</v>
+      </c>
+      <c r="J499" t="n">
+        <v>377.9766666666667</v>
+      </c>
+      <c r="K499" t="n">
+        <v>378.44</v>
+      </c>
+      <c r="L499" t="n">
+        <v>363.6366666666667</v>
+      </c>
+      <c r="M499" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="N499" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="O499" t="n">
+        <v>370.08</v>
+      </c>
+      <c r="P499" t="n">
+        <v>349.9433333333333</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>337.56</v>
+      </c>
+      <c r="R499" t="n">
+        <v>342.34</v>
+      </c>
+      <c r="S499" t="n">
+        <v>354.8266666666667</v>
+      </c>
+      <c r="T499" t="n">
+        <v>347.04</v>
+      </c>
+      <c r="U499" t="n">
+        <v>326.03</v>
+      </c>
+      <c r="V499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:58+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>364.15</v>
+      </c>
+      <c r="C500" t="n">
+        <v>346.1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>347.6566666666667</v>
+      </c>
+      <c r="E500" t="n">
+        <v>361.4666666666667</v>
+      </c>
+      <c r="F500" t="n">
+        <v>380.9985714285714</v>
+      </c>
+      <c r="G500" t="n">
+        <v>394.2292307692308</v>
+      </c>
+      <c r="H500" t="n">
+        <v>390.605</v>
+      </c>
+      <c r="I500" t="n">
+        <v>399.77</v>
+      </c>
+      <c r="J500" t="n">
+        <v>392.4633333333333</v>
+      </c>
+      <c r="K500" t="n">
+        <v>382.02</v>
+      </c>
+      <c r="L500" t="n">
+        <v>369.0533333333333</v>
+      </c>
+      <c r="M500" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="N500" t="n">
+        <v>370.7600000000001</v>
+      </c>
+      <c r="O500" t="n">
+        <v>368.2600000000001</v>
+      </c>
+      <c r="P500" t="n">
+        <v>363.8566666666667</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>354.38</v>
+      </c>
+      <c r="R500" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="S500" t="n">
+        <v>364.6033333333333</v>
+      </c>
+      <c r="T500" t="n">
+        <v>350.09</v>
+      </c>
+      <c r="U500" t="n">
+        <v>335.73</v>
+      </c>
+      <c r="V500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31645,7 +32077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36673,6 +37105,66 @@
       </c>
       <c r="B502" t="n">
         <v>-0.96</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.86</v>
       </c>
     </row>
   </sheetData>
@@ -36841,28 +37333,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.368936669236617</v>
+        <v>-0.3272413503031597</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K2" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02119426354296983</v>
+        <v>0.01688581008540713</v>
       </c>
       <c r="M2" t="n">
-        <v>13.81026338991876</v>
+        <v>13.85919808451</v>
       </c>
       <c r="N2" t="n">
-        <v>346.0303552962596</v>
+        <v>348.3438725360045</v>
       </c>
       <c r="O2" t="n">
-        <v>18.60189117526118</v>
+        <v>18.66397258184882</v>
       </c>
       <c r="P2" t="n">
-        <v>341.8017809913229</v>
+        <v>341.3978403797088</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -36918,28 +37410,28 @@
         <v>0.0443</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01490963066262844</v>
+        <v>0.02069418006644066</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K3" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L3" t="n">
-        <v>7.530981880488063e-05</v>
+        <v>0.0001484390070478625</v>
       </c>
       <c r="M3" t="n">
-        <v>10.07696985717804</v>
+        <v>10.03058966095091</v>
       </c>
       <c r="N3" t="n">
-        <v>162.6596730974037</v>
+        <v>161.4288488848966</v>
       </c>
       <c r="O3" t="n">
-        <v>12.75381014040133</v>
+        <v>12.70546531555994</v>
       </c>
       <c r="P3" t="n">
-        <v>327.7693889762449</v>
+        <v>327.7134734064241</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -36995,28 +37487,28 @@
         <v>0.0674</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1309662822015593</v>
+        <v>0.1352917793760919</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K4" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00718655363375531</v>
+        <v>0.007828884750769372</v>
       </c>
       <c r="M4" t="n">
-        <v>9.028246636035661</v>
+        <v>8.991531168195962</v>
       </c>
       <c r="N4" t="n">
-        <v>129.301517325922</v>
+        <v>128.4386223013598</v>
       </c>
       <c r="O4" t="n">
-        <v>11.3710825045781</v>
+        <v>11.3330764711688</v>
       </c>
       <c r="P4" t="n">
-        <v>330.1465123260634</v>
+        <v>330.1045269501499</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -37072,28 +37564,28 @@
         <v>0.0709</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2615375214290202</v>
+        <v>0.2713014276946685</v>
       </c>
       <c r="J5" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K5" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03032295231499871</v>
+        <v>0.03304090664347348</v>
       </c>
       <c r="M5" t="n">
-        <v>8.592184326429027</v>
+        <v>8.605462154953079</v>
       </c>
       <c r="N5" t="n">
-        <v>121.4456644828707</v>
+        <v>121.3160605777505</v>
       </c>
       <c r="O5" t="n">
-        <v>11.02023885779572</v>
+        <v>11.01435702062315</v>
       </c>
       <c r="P5" t="n">
-        <v>336.3569278866925</v>
+        <v>336.2626011726056</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -37149,28 +37641,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4931559018242595</v>
+        <v>0.5105046501154972</v>
       </c>
       <c r="J6" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07400143269703618</v>
+        <v>0.08021205352273708</v>
       </c>
       <c r="M6" t="n">
-        <v>10.27135408305661</v>
+        <v>10.22847290046917</v>
       </c>
       <c r="N6" t="n">
-        <v>164.2969542448701</v>
+        <v>163.8338847774593</v>
       </c>
       <c r="O6" t="n">
-        <v>12.81783734663808</v>
+        <v>12.79976112189049</v>
       </c>
       <c r="P6" t="n">
-        <v>342.2540535478619</v>
+        <v>342.0846560698254</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -37226,28 +37718,28 @@
         <v>0.0764</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6554199671201598</v>
+        <v>0.6815864377278044</v>
       </c>
       <c r="J7" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1453604009404754</v>
+        <v>0.1548931794876192</v>
       </c>
       <c r="M7" t="n">
-        <v>9.233111858137628</v>
+        <v>9.301627043837732</v>
       </c>
       <c r="N7" t="n">
-        <v>137.8819319761742</v>
+        <v>140.5267347013408</v>
       </c>
       <c r="O7" t="n">
-        <v>11.74231374032282</v>
+        <v>11.85439727279885</v>
       </c>
       <c r="P7" t="n">
-        <v>341.554811747523</v>
+        <v>341.3017629161568</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -37297,28 +37789,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.2912921562204523</v>
+        <v>0.3042553991051004</v>
       </c>
       <c r="J8" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K8" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02326789483705161</v>
+        <v>0.02558389739942724</v>
       </c>
       <c r="M8" t="n">
-        <v>11.12507398973155</v>
+        <v>11.13708990260394</v>
       </c>
       <c r="N8" t="n">
-        <v>196.3362226626222</v>
+        <v>197.2808735509193</v>
       </c>
       <c r="O8" t="n">
-        <v>14.01200280697311</v>
+        <v>14.04567098970068</v>
       </c>
       <c r="P8" t="n">
-        <v>352.3311992102443</v>
+        <v>352.2061520461039</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -37368,28 +37860,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.181040060611695</v>
+        <v>0.1976504743873862</v>
       </c>
       <c r="J9" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K9" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006469831081388655</v>
+        <v>0.007857264785502749</v>
       </c>
       <c r="M9" t="n">
-        <v>12.74261064237275</v>
+        <v>12.72607564404665</v>
       </c>
       <c r="N9" t="n">
-        <v>270.9763265209936</v>
+        <v>269.7095854855326</v>
       </c>
       <c r="O9" t="n">
-        <v>16.46135858673255</v>
+        <v>16.422837315322</v>
       </c>
       <c r="P9" t="n">
-        <v>367.5908857171214</v>
+        <v>367.4272786274015</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -37445,28 +37937,28 @@
         <v>0.0332</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5543086973686469</v>
+        <v>0.5529725810895265</v>
       </c>
       <c r="J10" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K10" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07336524855322324</v>
+        <v>0.07479973978495202</v>
       </c>
       <c r="M10" t="n">
-        <v>11.04961615524232</v>
+        <v>10.97799204187043</v>
       </c>
       <c r="N10" t="n">
-        <v>211.3603289257111</v>
+        <v>209.1797311552048</v>
       </c>
       <c r="O10" t="n">
-        <v>14.53823678874818</v>
+        <v>14.46304709095579</v>
       </c>
       <c r="P10" t="n">
-        <v>362.2156464562909</v>
+        <v>362.2282229676391</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -37522,28 +38014,28 @@
         <v>0.0496</v>
       </c>
       <c r="I11" t="n">
-        <v>1.074720103735594</v>
+        <v>1.067042229929434</v>
       </c>
       <c r="J11" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K11" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2043237485549559</v>
+        <v>0.2054029476036339</v>
       </c>
       <c r="M11" t="n">
-        <v>12.10300234691569</v>
+        <v>12.0708207895442</v>
       </c>
       <c r="N11" t="n">
-        <v>243.041002585599</v>
+        <v>241.5117016317367</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58977237119256</v>
+        <v>15.54064675718925</v>
       </c>
       <c r="P11" t="n">
-        <v>341.6277866489436</v>
+        <v>341.7028530248442</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -37599,28 +38091,28 @@
         <v>0.0402</v>
       </c>
       <c r="I12" t="n">
-        <v>1.236959533157872</v>
+        <v>1.210216343243411</v>
       </c>
       <c r="J12" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2572507169386775</v>
+        <v>0.2517017448244658</v>
       </c>
       <c r="M12" t="n">
-        <v>12.01806434738856</v>
+        <v>11.9906994428229</v>
       </c>
       <c r="N12" t="n">
-        <v>236.9653655613644</v>
+        <v>236.915990404512</v>
       </c>
       <c r="O12" t="n">
-        <v>15.3936794029681</v>
+        <v>15.39207557168662</v>
       </c>
       <c r="P12" t="n">
-        <v>333.9850701714898</v>
+        <v>334.2493399351524</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -37676,28 +38168,28 @@
         <v>0.0269</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9412852423062559</v>
+        <v>0.9063289468933586</v>
       </c>
       <c r="J13" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K13" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1900214598919346</v>
+        <v>0.1794519424954677</v>
       </c>
       <c r="M13" t="n">
-        <v>11.27908189448124</v>
+        <v>11.30729013592012</v>
       </c>
       <c r="N13" t="n">
-        <v>203.1890740262119</v>
+        <v>205.0758199264569</v>
       </c>
       <c r="O13" t="n">
-        <v>14.25444050204048</v>
+        <v>14.32046856518518</v>
       </c>
       <c r="P13" t="n">
-        <v>349.5934486709846</v>
+        <v>349.937037268926</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -37753,28 +38245,28 @@
         <v>0.0267</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4284584991184521</v>
+        <v>0.4009062997575845</v>
       </c>
       <c r="J14" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K14" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06253255673035218</v>
+        <v>0.05597219381073981</v>
       </c>
       <c r="M14" t="n">
-        <v>9.505403280431405</v>
+        <v>9.492344445657537</v>
       </c>
       <c r="N14" t="n">
-        <v>146.8215999178369</v>
+        <v>146.8648296087669</v>
       </c>
       <c r="O14" t="n">
-        <v>12.11699632408283</v>
+        <v>12.11878003797275</v>
       </c>
       <c r="P14" t="n">
-        <v>362.7064103713735</v>
+        <v>362.9779218867574</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -37830,28 +38322,28 @@
         <v>0.0275</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1737421544819384</v>
+        <v>0.171076080041808</v>
       </c>
       <c r="J15" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K15" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01230473131560161</v>
+        <v>0.01231116060808379</v>
       </c>
       <c r="M15" t="n">
-        <v>8.658072645825582</v>
+        <v>8.553009833103491</v>
       </c>
       <c r="N15" t="n">
-        <v>124.9542300703171</v>
+        <v>122.9924117250062</v>
       </c>
       <c r="O15" t="n">
-        <v>11.17829280661037</v>
+        <v>11.09019439527578</v>
       </c>
       <c r="P15" t="n">
-        <v>363.8409365739523</v>
+        <v>363.8679820201414</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -37907,28 +38399,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8039297706060053</v>
+        <v>0.8102493153929553</v>
       </c>
       <c r="J16" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K16" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1773146446150381</v>
+        <v>0.1824644118635276</v>
       </c>
       <c r="M16" t="n">
-        <v>9.739845745700796</v>
+        <v>9.73054632624952</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5089070768136</v>
+        <v>158.8161751961482</v>
       </c>
       <c r="O16" t="n">
-        <v>12.62968356994005</v>
+        <v>12.60222897729399</v>
       </c>
       <c r="P16" t="n">
-        <v>323.5539144627768</v>
+        <v>323.4905663536508</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -37978,28 +38470,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.8851755508045503</v>
+        <v>0.8866901038466272</v>
       </c>
       <c r="J17" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K17" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2509937116598967</v>
+        <v>0.2559533604599122</v>
       </c>
       <c r="M17" t="n">
-        <v>8.712054870227023</v>
+        <v>8.683555093052613</v>
       </c>
       <c r="N17" t="n">
-        <v>125.4731460057553</v>
+        <v>124.4945597114722</v>
       </c>
       <c r="O17" t="n">
-        <v>11.20147963466234</v>
+        <v>11.15771301438929</v>
       </c>
       <c r="P17" t="n">
-        <v>318.7011769185825</v>
+        <v>318.6863365827231</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -38049,28 +38541,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.7408938006374841</v>
+        <v>0.7523469136073291</v>
       </c>
       <c r="J18" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K18" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1791081584206943</v>
+        <v>0.1860312665385638</v>
       </c>
       <c r="M18" t="n">
-        <v>9.195055090242048</v>
+        <v>9.18813628545808</v>
       </c>
       <c r="N18" t="n">
-        <v>137.5012196076489</v>
+        <v>137.5082679644305</v>
       </c>
       <c r="O18" t="n">
-        <v>11.72609140368814</v>
+        <v>11.72639194144689</v>
       </c>
       <c r="P18" t="n">
-        <v>322.0318696572563</v>
+        <v>321.9209167315821</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -38120,28 +38612,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.5999257495312033</v>
+        <v>0.6178274715358669</v>
       </c>
       <c r="J19" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K19" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1028286270726207</v>
+        <v>0.1102136512214157</v>
       </c>
       <c r="M19" t="n">
-        <v>10.11150306712976</v>
+        <v>10.10265667453627</v>
       </c>
       <c r="N19" t="n">
-        <v>167.723507940021</v>
+        <v>167.1292026661954</v>
       </c>
       <c r="O19" t="n">
-        <v>12.95081109197493</v>
+        <v>12.92784601804165</v>
       </c>
       <c r="P19" t="n">
-        <v>327.7570934032735</v>
+        <v>327.5799832217365</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -38197,28 +38689,28 @@
         <v>0.0205</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4391565813027908</v>
+        <v>0.4440692641245421</v>
       </c>
       <c r="J20" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K20" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04124728096762298</v>
+        <v>0.04334535019707997</v>
       </c>
       <c r="M20" t="n">
-        <v>12.14408112067772</v>
+        <v>12.02953701008012</v>
       </c>
       <c r="N20" t="n">
-        <v>241.6582412317524</v>
+        <v>238.2987805383502</v>
       </c>
       <c r="O20" t="n">
-        <v>15.54536076235455</v>
+        <v>15.43692911619245</v>
       </c>
       <c r="P20" t="n">
-        <v>331.8448121370678</v>
+        <v>331.7966546586901</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -38274,28 +38766,28 @@
         <v>0.0336</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4538446142795277</v>
+        <v>0.4391581555334992</v>
       </c>
       <c r="J21" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K21" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03544841034702584</v>
+        <v>0.03414736317906686</v>
       </c>
       <c r="M21" t="n">
-        <v>14.21789614971109</v>
+        <v>14.12430839491402</v>
       </c>
       <c r="N21" t="n">
-        <v>311.8700772515816</v>
+        <v>308.9320959987608</v>
       </c>
       <c r="O21" t="n">
-        <v>17.65984363610226</v>
+        <v>17.57646426329143</v>
       </c>
       <c r="P21" t="n">
-        <v>324.8802104592206</v>
+        <v>325.0184885708257</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -38332,7 +38824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V494"/>
+  <dimension ref="A1:V500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84848,6 +85340,678 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-46.38581296149364,169.7837375960989</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-46.38636334277601,169.7833197111738</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-46.38698037394727,169.7831276728781</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-46.387598587238045,169.78293966178444</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-46.38818562336969,169.7827378077832</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-46.3887674117328,169.78271470556095</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-46.3893675034311,169.7825925756722</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-46.39001228101101,169.78270463035216</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-46.39063875747075,169.78248585051168</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-46.39123733828871,169.78218898520785</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-46.39182393264065,169.78188967826375</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-46.39241418113257,169.78180775317134</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-46.39300166156736,169.78189924900946</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>-46.393620678521174,169.78192942922195</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>-46.39424417693881,169.78177768408145</t>
+        </is>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>-46.39486560956887,169.7817754062418</t>
+        </is>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>-46.3954859604575,169.7818140120538</t>
+        </is>
+      </c>
+      <c r="S495" t="inlineStr">
+        <is>
+          <t>-46.396105838361265,169.78186632504296</t>
+        </is>
+      </c>
+      <c r="T495" t="inlineStr">
+        <is>
+          <t>-46.39670903918263,169.78183300746082</t>
+        </is>
+      </c>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>-46.397362825802766,169.7815687284032</t>
+        </is>
+      </c>
+      <c r="V495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-46.38581359653024,169.78373974775525</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-46.38633868191415,169.7832361545546</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-46.38694870396787,169.78302036705085</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-46.387519147244305,169.78267049806826</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-46.38815493461272,169.78259283218628</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-46.388745907742724,169.78250054326986</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-46.38936043563765,169.78248982686486</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-46.38999311226051,169.7825027383859</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-46.39063619799638,169.78246812378157</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-46.39122766424756,169.78213125925285</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-46.39181929059734,169.78186157153857</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-46.392411875466365,169.78177582405536</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-46.39300269312809,169.7818341505317</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>-46.393621568005614,169.78187329576616</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>-46.394245702817955,169.78155613255007</t>
+        </is>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>-46.394864786879445,169.78163685738406</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>-46.39548377434335,169.78159112381536</t>
+        </is>
+      </c>
+      <c r="S496" t="inlineStr">
+        <is>
+          <t>-46.39610364548331,169.7816427411217</t>
+        </is>
+      </c>
+      <c r="T496" t="inlineStr">
+        <is>
+          <t>-46.39672282438202,169.7816623329887</t>
+        </is>
+      </c>
+      <c r="U496" t="inlineStr">
+        <is>
+          <t>-46.39729810753195,169.78193522524415</t>
+        </is>
+      </c>
+      <c r="V496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-46.38577485922518,169.78360849681206</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-46.386347890054054,169.78326735379812</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-46.386951079513715,169.78302841597957</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-46.387533412384,169.7827188319224</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-46.38816372861732,169.78263437550657</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-46.38874770580026,169.782518450305</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-46.38936232380166,169.78251727611837</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-46.38999625410161,169.7825358290862</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-46.39062269029493,169.78237457078114</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-46.3912249758328,169.78211521725171</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-46.3918241901451,169.7818912374076</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-46.39241595471594,169.7818323140319</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-46.393001972480796,169.7818796285102</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>-46.39362095854704,169.7819117575785</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>-46.3942458582461,169.78153356150102</t>
+        </is>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>-46.394864553007416,169.78159747623835</t>
+        </is>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>-46.395484007634565,169.7816149072231</t>
+        </is>
+      </c>
+      <c r="S497" t="inlineStr">
+        <is>
+          <t>-46.396103930611915,169.78167181006165</t>
+        </is>
+      </c>
+      <c r="T497" t="inlineStr">
+        <is>
+          <t>-46.39671850741078,169.78171578173436</t>
+        </is>
+      </c>
+      <c r="U497" t="inlineStr">
+        <is>
+          <t>-46.39729112411421,169.78197477159028</t>
+        </is>
+      </c>
+      <c r="V497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-46.38580548217064,169.78371225437235</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-46.38631606725193,169.78315953117124</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-46.38690767279451,169.78288134383666</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-46.38757277371765,169.78285219843033</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-46.38815391616081,169.7825880209736</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-46.38873700483343,169.78241187873192</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-46.38934115330518,169.78220951482854</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-46.38999195087716,169.78249050641602</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-46.39062749086474,169.7824078189859</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-46.39119512792948,169.78193711325846</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-46.39176715587782,169.78154590850446</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-46.39238413209971,169.7813916407706</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>-46.3930060284592,169.78162365245655</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>-46.39361993520394,169.78197633704008</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>-46.394244967084035,169.7816629659622</t>
+        </is>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>-46.39486428361324,169.78155211643818</t>
+        </is>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>-46.395483980863695,169.78161217797958</t>
+        </is>
+      </c>
+      <c r="S498" t="inlineStr">
+        <is>
+          <t>-46.39610417324162,169.78169654682034</t>
+        </is>
+      </c>
+      <c r="T498" t="inlineStr">
+        <is>
+          <t>-46.396722490703986,169.78166646429295</t>
+        </is>
+      </c>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>-46.397316811457806,169.7818293064808</t>
+        </is>
+      </c>
+      <c r="V498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:14:40+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-46.385945295217034,169.78418597849492</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-46.38637530274345,169.78336023436916</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-46.386933486349214,169.78296880610873</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-46.387573855652384,169.78285586431863</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-46.38817405215856,169.782683144542</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-46.38877187102669,169.78275911702852</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-46.389367763634446,169.78259635843256</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-46.390018038902134,169.78276527522792</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-46.39064390090385,169.78252147361115</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-46.39126197838646,169.78233601596682</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-46.391835896136215,169.78196211525977</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>-46.39241237953989,169.7817828045096</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>-46.393001570969425,169.78190496624103</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>-46.39362005257108,169.7819689305425</t>
+        </is>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>-46.39424434882312,169.78175273029092</t>
+        </is>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>-46.394864650262775,169.78161385255623</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>-46.39548472659928,169.7816882069089</t>
+        </is>
+      </c>
+      <c r="S499" t="inlineStr">
+        <is>
+          <t>-46.39610580394823,169.7818628159751</t>
+        </is>
+      </c>
+      <c r="T499" t="inlineStr">
+        <is>
+          <t>-46.396713689891364,169.78177542742768</t>
+        </is>
+      </c>
+      <c r="U499" t="inlineStr">
+        <is>
+          <t>-46.397330644736876,169.78175096937338</t>
+        </is>
+      </c>
+      <c r="V499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:58+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-46.38590303045981,169.78404277320922</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-46.38641580424051,169.7834974634974</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-46.386997743589944,169.78318652577596</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-46.38762290716047,169.78302206469468</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-46.38823005147157,169.78294769071127</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-46.38879558675243,169.7829953121702</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-46.38938790344156,169.78288915067864</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-46.39003459113338,169.78293961323155</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-46.3906705118722,169.78270578085852</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-46.39126955666092,169.7823812367958</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-46.39184720539096,169.78203059121805</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>-46.39242499057505,169.78195744518223</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>-46.39300114062537,169.7819321230909</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>-46.39362042731916,169.7819452817256</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>-46.39424310313523,169.78193355863016</t>
+        </is>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>-46.39486594831989,169.78183246342059</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>-46.39548774854137,169.78199635155866</t>
+        </is>
+      </c>
+      <c r="S500" t="inlineStr">
+        <is>
+          <t>-46.396107049971356,169.78198987889587</t>
+        </is>
+      </c>
+      <c r="T500" t="inlineStr">
+        <is>
+          <t>-46.396710509477124,169.78181480390862</t>
+        </is>
+      </c>
+      <c r="U500" t="inlineStr">
+        <is>
+          <t>-46.39730907191443,169.7818731349428</t>
+        </is>
+      </c>
+      <c r="V500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0538/nzd0538.xlsx
+++ b/data/nzd0538/nzd0538.xlsx
@@ -37178,7 +37178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37269,35 +37269,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -37356,27 +37361,28 @@
       <c r="P2" t="n">
         <v>341.3978403797088</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.77968994395852 -46.384618246891264, 169.790164089259 -46.38770942353501)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.7796899439585</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.38461824689126</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.790164089259</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.38770942353501</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.7849270166088</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.38616383521314</v>
       </c>
     </row>
@@ -37433,27 +37439,28 @@
       <c r="P3" t="n">
         <v>327.7134734064241</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.77936036075096 -46.38519469143634, 169.78983456575833 -46.388285880458106)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.779360360751</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.38519469143634</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.7898345657583</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.38828588045811</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.7845974632546</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.38674028594723</v>
       </c>
     </row>
@@ -37510,27 +37517,28 @@
       <c r="P4" t="n">
         <v>330.1045269501499</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.7790307775432 -46.38577112989406, 169.78950504225807 -46.38886233129433)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.7790307775432</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.38577112989406</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.7895050422581</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.38886233129433</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.7842679099006</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.38731673059419</v>
       </c>
     </row>
@@ -37587,27 +37595,28 @@
       <c r="P5" t="n">
         <v>336.2626011726056</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.7787011943351 -46.38634756226453, 169.78917551875836 -46.38943877604347)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.7787011943351</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.38634756226453</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.7891755187584</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.38943877604347</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.7839383565467</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.387893169154</v>
       </c>
     </row>
@@ -37664,27 +37673,28 @@
       <c r="P6" t="n">
         <v>342.0846560698254</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.77821291379524 -46.38722768172206, 169.7891027844116 -46.38953276249972)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.7782129137952</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.38722768172206</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.7891027844116</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.38953276249972</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.7836578491034</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.38838022211089</v>
       </c>
     </row>
@@ -37741,27 +37751,28 @@
       <c r="P7" t="n">
         <v>341.3017629161568</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.77792501272367 -46.38828638019775, 169.78919572222188 -46.38941797224281)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.7779250127237</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.38828638019775</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.7891957222219</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.38941797224281</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.7835603674728</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.38885217622028</v>
       </c>
     </row>
@@ -37812,27 +37823,28 @@
       <c r="P8" t="n">
         <v>352.2061520461039</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.77783767963444 -46.38904032945266, 169.7891707532591 -46.389819801708505)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.7778376796344</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.38904032945266</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.7891707532591</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.38981980170851</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.7835042164468</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.38943006558058</v>
       </c>
     </row>
@@ -37883,27 +37895,28 @@
       <c r="P9" t="n">
         <v>367.4272786274015</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.7777923146924 -46.389545773705564, 169.789075534677 -46.39061698089519)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.7777923146924</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.38954577370556</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.789075534677</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.39061698089519</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.7834339246847</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.39008137730038</v>
       </c>
     </row>
@@ -37960,27 +37973,28 @@
       <c r="P10" t="n">
         <v>362.2282229676391</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.77771271780006 -46.389949481305116, 169.7888613953772 -46.39155909802372)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.7777127178001</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.38994948130512</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.7888613953772</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.39155909802372</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.7832870565886</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.39075428966441</v>
       </c>
     </row>
@@ -38037,27 +38051,28 @@
       <c r="P11" t="n">
         <v>341.7028530248442</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.77755582066123 -46.390460783560584, 169.78862455980246 -46.392315645380194)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.7775558206612</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.39046078356058</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.7886245598025</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.39231564538019</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.7830901902319</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.39138821447039</v>
       </c>
     </row>
@@ -38114,27 +38129,28 @@
       <c r="P12" t="n">
         <v>334.2493399351524</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.77736519354536 -46.39107658051052, 169.7884428589714 -46.39290603248842)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.7773651935454</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.39107658051052</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.7884428589714</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.39290603248842</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.7829040262584</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.39199130649947</v>
       </c>
     </row>
@@ -38191,27 +38207,28 @@
       <c r="P13" t="n">
         <v>349.937037268926</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.7770895173272 -46.392073369193874, 169.78841734954125 -46.392891277818435)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.7770895173272</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.39207336919387</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.7884173495412</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.39289127781844</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.7827534334342</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.39248232350616</v>
       </c>
     </row>
@@ -38268,27 +38285,28 @@
       <c r="P14" t="n">
         <v>362.9779218867574</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.77711457459938 -46.39307738120348, 169.78850106886537 -46.39289685499876)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.7771145745994</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.39307738120348</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.7885010688654</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.39289685499876</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.7828078217324</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.39298711810112</v>
       </c>
     </row>
@@ -38345,27 +38363,28 @@
       <c r="P15" t="n">
         <v>363.8679820201414</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.7771601632409 -46.393696153162345, 169.78854674592458 -46.39351562752673)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.7771601632409</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.39369615316235</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.7885467459246</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.39351562752673</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.7828534545827</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.39360589034454</v>
       </c>
     </row>
@@ -38422,27 +38441,28 @@
       <c r="P16" t="n">
         <v>323.4905663536508</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (169.77720460095702 -46.3942755856854, 169.78859370634953 -46.39419702317967)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>169.777204600957</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.3942755856854</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>169.7885937063495</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.39419702317967</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169.7828991536533</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.39423630443254</v>
       </c>
     </row>
@@ -38493,27 +38513,28 @@
       <c r="P17" t="n">
         <v>318.6863365827231</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (169.7772265655836 -46.39483851117209, 169.78861591716534 -46.394906018839414)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>169.7772265655836</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.39483851117209</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>169.7886159171653</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.39490601883941</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>169.7829212413745</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.39487226500575</v>
       </c>
     </row>
@@ -38564,27 +38585,28 @@
       <c r="P18" t="n">
         <v>321.9209167315821</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (169.7772390280013 -46.395441001300455, 169.78862774552312 -46.39555258044288)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>169.7772390280013</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-46.39544100130045</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>169.7886277455231</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-46.39555258044288</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>169.7829333867622</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-46.39549679087167</v>
       </c>
     </row>
@@ -38635,27 +38657,28 @@
       <c r="P19" t="n">
         <v>327.5799832217365</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (169.77725130308932 -46.39606048617835, 169.7886401089509 -46.396172067108914)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>169.7772513030893</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-46.39606048617835</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>169.7886401089509</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-46.39617206710891</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>169.7829457060201</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-46.39611627664363</v>
       </c>
     </row>
@@ -38712,27 +38735,28 @@
       <c r="P20" t="n">
         <v>331.7966546586901</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (169.77729500416302 -46.39707547944784, 169.78860797502188 -46.39616161951839)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>169.777295004163</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-46.39707547944784</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>169.7886079750219</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-46.39616161951839</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>169.7829514895924</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-46.39661854948312</v>
       </c>
     </row>
@@ -38789,27 +38813,28 @@
       <c r="P21" t="n">
         <v>325.0184885708257</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (169.77764476856433 -46.39805565871263, 169.78868023066485 -46.3961067932821)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>169.7776447685643</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-46.39805565871263</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>169.7886802306649</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-46.3961067932821</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>169.7831624996146</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-46.39708122599737</v>
       </c>
     </row>
